--- a/databases/excel/Employee_Master_Database.xlsx
+++ b/databases/excel/Employee_Master_Database.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -547,27 +547,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mary Garcia</t>
+          <t>John Garcia</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mary.garcia@company.com</t>
+          <t>john.garcia@company.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(480) 964-4321</t>
+          <t>(994) 108-6131</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>376-20-6743</t>
+          <t>489-75-9550</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1979-10-22</t>
+          <t>1963-05-25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -577,50 +577,50 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Associate</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>64530</v>
+        <v>140432</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2015-08-20</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8063 Maple St</t>
+          <t>7782 Main St</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>15115</t>
+          <t>81184</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>(574) 371-5582</t>
+          <t>(311) 134-7255</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Sibling</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>5035068635</t>
+          <t>4465636402</t>
         </is>
       </c>
     </row>
@@ -630,90 +630,90 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jane Johnson</t>
+          <t>David Smith</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>jane.johnson@company.com</t>
+          <t>david.smith@company.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(519) 164-5828</t>
+          <t>(249) 633-3270</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>852-76-4957</t>
+          <t>222-94-3888</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1980-11-05</t>
+          <t>1992-05-16</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Associate</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>100880</v>
+        <v>121655</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2017-03-27</t>
+          <t>2015-08-01</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4496 Pine St</t>
+          <t>8956 Main St</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>34326</t>
+          <t>39970</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>(269) 170-5125</t>
+          <t>(942) 514-4454</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2821598685</t>
+          <t>2164622426</t>
         </is>
       </c>
     </row>
@@ -723,37 +723,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Robert Jones</t>
+          <t>Sarah Rodriguez</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>robert.jones@company.com</t>
+          <t>sarah.rodriguez@company.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(626) 581-3327</t>
+          <t>(451) 379-4545</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>710-69-1481</t>
+          <t>411-51-6072</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1987-08-13</t>
+          <t>1966-11-26</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -763,50 +763,50 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>66030</v>
+        <v>55131</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-11-12</t>
+          <t>2017-05-25</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3333 Maple St</t>
+          <t>4213 Maple St</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>89049</t>
+          <t>46103</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>(220) 919-3865</t>
+          <t>(544) 912-9600</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1078715221</t>
+          <t>9164816245</t>
         </is>
       </c>
     </row>
@@ -816,90 +816,90 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>John Martinez</t>
+          <t>Michael Rodriguez</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>john.martinez@company.com</t>
+          <t>michael.rodriguez@company.com</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(392) 142-8756</t>
+          <t>(980) 866-9338</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>788-77-3441</t>
+          <t>538-24-9218</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1979-04-13</t>
+          <t>1979-08-20</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Specialist</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>78884</v>
+        <v>145939</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2019-08-20</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>9851 Maple St</t>
+          <t>8086 Oak St</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>40958</t>
+          <t>53167</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>(418) 693-2450</t>
+          <t>(596) 964-7551</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1384488869</t>
+          <t>2971478566</t>
         </is>
       </c>
     </row>
@@ -914,55 +914,55 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>David Brown</t>
+          <t>David Davis</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>david.brown@company.com</t>
+          <t>david.davis@company.com</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(912) 909-6556</t>
+          <t>(434) 135-9289</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>770-88-8820</t>
+          <t>699-99-8811</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1999-04-23</t>
+          <t>1990-10-11</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>129862</v>
+        <v>87155</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-01-25</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1662 Pine St</t>
+          <t>466 Pine St</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -972,27 +972,27 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>41093</t>
+          <t>12767</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>(961) 518-4791</t>
+          <t>(704) 317-5392</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4229343967</t>
+          <t>7917460702</t>
         </is>
       </c>
     </row>
@@ -1002,60 +1002,60 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sarah Garcia</t>
+          <t>David Rodriguez</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sarah.garcia@company.com</t>
+          <t>david.rodriguez@company.com</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(900) 685-7021</t>
+          <t>(710) 842-2108</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>260-54-3273</t>
+          <t>885-32-2179</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1989-06-21</t>
+          <t>1975-02-27</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Specialist</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>138131</v>
+        <v>135042</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2015-07-14</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3788 Oak St</t>
+          <t>3802 Oak St</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1065,27 +1065,27 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>37060</t>
+          <t>29904</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>(974) 399-4470</t>
+          <t>(600) 564-5072</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Spouse</t>
+          <t>Sibling</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>7360126501</t>
+          <t>4978805397</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1105,80 +1105,80 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jane Martinez</t>
+          <t>Jennifer Martinez</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>jane.martinez@company.com</t>
+          <t>jennifer.martinez@company.com</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(790) 906-6133</t>
+          <t>(723) 942-5635</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>608-25-9466</t>
+          <t>464-43-4478</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1976-04-23</t>
+          <t>1999-06-28</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Customer Support</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>96408</v>
+        <v>142615</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2016-05-24</t>
+          <t>2018-06-08</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>9824 Oak St</t>
+          <t>7355 Oak St</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>85576</t>
+          <t>16621</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>(248) 244-9388</t>
+          <t>(974) 787-8980</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3470177384</t>
+          <t>9276372220</t>
         </is>
       </c>
     </row>
@@ -1188,60 +1188,60 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mary Brown</t>
+          <t>Robert Miller</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>mary.brown@company.com</t>
+          <t>robert.miller@company.com</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(933) 150-1460</t>
+          <t>(750) 830-9758</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>133-81-4743</t>
+          <t>798-55-3590</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1983-11-07</t>
+          <t>1981-01-25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>108900</v>
+        <v>129863</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>7491 Maple St</t>
+          <t>489 Main St</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1251,27 +1251,27 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>86141</t>
+          <t>50934</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>(472) 717-3660</t>
+          <t>(248) 572-8339</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>4076026040</t>
+          <t>2433713988</t>
         </is>
       </c>
     </row>
@@ -1281,37 +1281,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Robert Brown</t>
+          <t>Lisa Williams</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>robert.brown@company.com</t>
+          <t>lisa.williams@company.com</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(704) 124-3108</t>
+          <t>(218) 544-8863</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>640-99-7134</t>
+          <t>158-82-3120</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1997-09-17</t>
+          <t>1983-01-23</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1321,50 +1321,50 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>77528</v>
+        <v>125422</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2017-04-07</t>
+          <t>2015-02-17</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4146 Maple St</t>
+          <t>9540 Maple St</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>21984</t>
+          <t>12574</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>(256) 925-2447</t>
+          <t>(917) 986-3514</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>9744835444</t>
+          <t>8975646813</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1384,70 +1384,70 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jane Rodriguez</t>
+          <t>David Rodriguez</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>jane.rodriguez@company.com</t>
+          <t>david.rodriguez@company.com</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(636) 509-9784</t>
+          <t>(267) 311-2079</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>592-33-8025</t>
+          <t>358-10-2477</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1978-08-22</t>
+          <t>1967-06-02</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>148641</v>
+        <v>99880</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2018-04-08</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7613 Oak St</t>
+          <t>5137 Maple St</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>55205</t>
+          <t>51922</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>(966) 481-2893</t>
+          <t>(259) 522-4888</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5298347816</t>
+          <t>8729669435</t>
         </is>
       </c>
     </row>
@@ -1467,60 +1467,60 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jennifer Davis</t>
+          <t>David Brown</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>jennifer.davis@company.com</t>
+          <t>david.brown@company.com</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(458) 653-8007</t>
+          <t>(291) 151-9276</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>924-31-8922</t>
+          <t>671-12-9818</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1981-03-09</t>
+          <t>1997-04-02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>77953</v>
+        <v>93357</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2155 Oak St</t>
+          <t>8501 Maple St</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1530,27 +1530,27 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>42134</t>
+          <t>25381</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>(640) 750-9789</t>
+          <t>(982) 176-9641</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>6026060812</t>
+          <t>5180152168</t>
         </is>
       </c>
     </row>
@@ -1560,80 +1560,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>David Martinez</t>
+          <t>Michael Brown</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>david.martinez@company.com</t>
+          <t>michael.brown@company.com</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(437) 290-3230</t>
+          <t>(551) 617-2133</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>221-85-8770</t>
+          <t>227-36-9895</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1980-12-27</t>
+          <t>1966-11-23</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Specialist</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>64470</v>
+        <v>87707</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-01-20</t>
+          <t>2016-11-14</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3355 Main St</t>
+          <t>9785 Pine St</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>53976</t>
+          <t>10963</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>(224) 900-6319</t>
+          <t>(829) 688-7285</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5378388344</t>
+          <t>8965152468</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1663,32 +1663,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lisa Garcia</t>
+          <t>Mary Garcia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>lisa.garcia@company.com</t>
+          <t>mary.garcia@company.com</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(334) 491-7799</t>
+          <t>(557) 645-5815</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>266-95-2215</t>
+          <t>114-17-1813</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1980-12-15</t>
+          <t>1981-10-23</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Customer Support</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1697,46 +1697,46 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>134929</v>
+        <v>88705</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2016-09-16</t>
+          <t>2023-06-26</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6925 Main St</t>
+          <t>8270 Pine St</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>89823</t>
+          <t>43776</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>(708) 258-5061</t>
+          <t>(808) 852-8987</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Sibling</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2330725270</t>
+          <t>9267225089</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1756,70 +1756,70 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Lisa Jones</t>
+          <t>Michael Jones</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>lisa.jones@company.com</t>
+          <t>michael.jones@company.com</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(262) 777-1772</t>
+          <t>(968) 429-4627</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>428-10-5421</t>
+          <t>513-45-4919</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1981-01-22</t>
+          <t>1978-04-17</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Customer Support</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>70774</v>
+        <v>142545</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1302 Main St</t>
+          <t>6809 Pine St</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>41930</t>
+          <t>53087</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>(923) 897-4604</t>
+          <t>(892) 956-3315</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>7891440305</t>
+          <t>5385581699</t>
         </is>
       </c>
     </row>
@@ -1839,60 +1839,60 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sarah Williams</t>
+          <t>James Garcia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sarah.williams@company.com</t>
+          <t>james.garcia@company.com</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(933) 644-4887</t>
+          <t>(752) 670-1319</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>595-61-2553</t>
+          <t>766-93-4296</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1982-03-03</t>
+          <t>1978-09-23</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Specialist</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>105031</v>
+        <v>119028</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2019-01-04</t>
+          <t>2021-09-06</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2987 Oak St</t>
+          <t>4355 Pine St</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1902,27 +1902,27 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>95782</t>
+          <t>85689</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>(360) 302-8546</t>
+          <t>(251) 625-4510</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>9148204132</t>
+          <t>5983251514</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1942,80 +1942,80 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mary Davis</t>
+          <t>Robert Davis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>mary.davis@company.com</t>
+          <t>robert.davis@company.com</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(881) 544-2754</t>
+          <t>(561) 808-1621</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>153-83-9194</t>
+          <t>333-85-1999</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1988-10-14</t>
+          <t>1974-10-13</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>85956</v>
+        <v>54659</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2017-04-02</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>115 Pine St</t>
+          <t>7809 Oak St</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>64493</t>
+          <t>83402</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>(278) 737-4828</t>
+          <t>(483) 327-9264</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Sibling</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3818943665</t>
+          <t>5917204028</t>
         </is>
       </c>
     </row>
@@ -2030,55 +2030,55 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Michael Johnson</t>
+          <t>Michael Miller</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>michael.johnson@company.com</t>
+          <t>michael.miller@company.com</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(464) 626-9668</t>
+          <t>(718) 549-3298</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>705-49-8543</t>
+          <t>218-89-1898</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1964-06-03</t>
+          <t>1982-02-27</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>72001</v>
+        <v>123832</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2018-06-25</t>
+          <t>2020-08-08</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5635 Oak St</t>
+          <t>1439 Pine St</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2088,27 +2088,27 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>51696</t>
+          <t>55829</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>(203) 970-2094</t>
+          <t>(458) 873-8961</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Spouse</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>7149404449</t>
+          <t>5942738905</t>
         </is>
       </c>
     </row>
@@ -2118,90 +2118,90 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sarah Williams</t>
+          <t>David Miller</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sarah.williams@company.com</t>
+          <t>david.miller@company.com</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(774) 858-6038</t>
+          <t>(644) 126-3950</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>832-92-6517</t>
+          <t>556-31-7994</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1981-02-02</t>
+          <t>1981-01-14</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>62748</v>
+        <v>94036</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2018-09-07</t>
+          <t>2015-08-19</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4049 Maple St</t>
+          <t>2878 Oak St</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>17898</t>
+          <t>19071</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>(994) 872-2362</t>
+          <t>(872) 206-5316</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Sibling</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2530524778</t>
+          <t>6095242688</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2221,55 +2221,55 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sarah Williams</t>
+          <t>Mary Williams</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sarah.williams@company.com</t>
+          <t>mary.williams@company.com</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(678) 753-7771</t>
+          <t>(385) 788-1652</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>260-25-5869</t>
+          <t>616-79-4489</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1972-11-27</t>
+          <t>1972-09-03</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>109931</v>
+        <v>116325</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2015-10-13</t>
+          <t>2015-07-19</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>9079 Oak St</t>
+          <t>7888 Main St</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2279,12 +2279,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>95356</t>
+          <t>30786</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>(792) 535-4105</t>
+          <t>(284) 433-3244</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>6291077159</t>
+          <t>7248664664</t>
         </is>
       </c>
     </row>
@@ -2304,90 +2304,90 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jane</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>James Smith</t>
+          <t>Jane Martinez</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>james.smith@company.com</t>
+          <t>jane.martinez@company.com</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(544) 980-6634</t>
+          <t>(625) 135-9812</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>387-82-5338</t>
+          <t>635-90-2294</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1982-12-09</t>
+          <t>1982-03-08</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>84581</v>
+        <v>137959</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2018-07-05</t>
+          <t>2021-07-25</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7746 Maple St</t>
+          <t>1822 Main St</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>39620</t>
+          <t>36851</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>(586) 691-5551</t>
+          <t>(272) 345-2485</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>7876758208</t>
+          <t>4134889927</t>
         </is>
       </c>
     </row>
@@ -2397,90 +2397,90 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lisa Johnson</t>
+          <t>Michael Smith</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>lisa.johnson@company.com</t>
+          <t>michael.smith@company.com</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(577) 605-6922</t>
+          <t>(588) 715-8438</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>437-15-7763</t>
+          <t>132-28-2060</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1962-02-21</t>
+          <t>1987-12-04</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Associate</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>136063</v>
+        <v>148829</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2021-12-06</t>
+          <t>2021-04-26</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>9950 Pine St</t>
+          <t>9620 Main St</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>38996</t>
+          <t>10479</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>(247) 201-3560</t>
+          <t>(412) 724-8036</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>4103434711</t>
+          <t>2546539630</t>
         </is>
       </c>
     </row>
@@ -2490,90 +2490,90 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Jane</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jennifer Brown</t>
+          <t>Jane Martinez</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>jennifer.brown@company.com</t>
+          <t>jane.martinez@company.com</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(702) 817-4199</t>
+          <t>(309) 280-6385</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>324-42-5882</t>
+          <t>842-42-2547</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1989-05-03</t>
+          <t>1978-12-27</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Specialist</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>107011</v>
+        <v>99450</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>4382 Oak St</t>
+          <t>6290 Pine St</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>28818</t>
+          <t>58762</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>(523) 376-6493</t>
+          <t>(287) 684-7937</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>7226872075</t>
+          <t>9287345915</t>
         </is>
       </c>
     </row>
@@ -2583,60 +2583,60 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jennifer Smith</t>
+          <t>David Johnson</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>jennifer.smith@company.com</t>
+          <t>david.johnson@company.com</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(475) 813-1636</t>
+          <t>(557) 509-1679</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>187-20-2204</t>
+          <t>579-14-7182</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1997-07-03</t>
+          <t>1975-12-28</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>62573</v>
+        <v>55370</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2015-07-20</t>
+          <t>2019-10-22</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>5471 Main St</t>
+          <t>156 Pine St</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>81428</t>
+          <t>28950</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>(353) 298-6495</t>
+          <t>(775) 928-3994</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2096591437</t>
+          <t>2733519826</t>
         </is>
       </c>
     </row>
@@ -2681,32 +2681,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sarah Johnson</t>
+          <t>Sarah Williams</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sarah.johnson@company.com</t>
+          <t>sarah.williams@company.com</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(590) 141-3145</t>
+          <t>(737) 599-7374</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>681-26-9522</t>
+          <t>504-83-8309</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1974-04-22</t>
+          <t>1960-04-07</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2716,20 +2716,20 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>136671</v>
+        <v>122101</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2018-08-03</t>
+          <t>2021-03-08</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>200 Maple St</t>
+          <t>6604 Maple St</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2739,27 +2739,27 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>68078</t>
+          <t>84027</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>(591) 245-6052</t>
+          <t>(391) 324-6241</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>9888740414</t>
+          <t>3413938262</t>
         </is>
       </c>
     </row>
@@ -2769,90 +2769,90 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>Robert Williams</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>james.johnson@company.com</t>
+          <t>robert.williams@company.com</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(378) 107-1456</t>
+          <t>(791) 393-4871</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>947-38-5309</t>
+          <t>720-69-8129</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1999-12-22</t>
+          <t>1999-10-09</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>111365</v>
+        <v>108876</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>8342 Oak St</t>
+          <t>2133 Oak St</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>71990</t>
+          <t>33043</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>(824) 583-7601</t>
+          <t>(805) 792-2328</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Spouse</t>
+          <t>Sibling</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>9302958628</t>
+          <t>8506391466</t>
         </is>
       </c>
     </row>
@@ -2862,65 +2862,65 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Sarah Jones</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>john.smith@company.com</t>
+          <t>sarah.jones@company.com</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(387) 540-9324</t>
+          <t>(701) 151-6913</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>382-46-7207</t>
+          <t>865-18-6638</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1985-08-15</t>
+          <t>1998-10-02</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>80341</v>
+        <v>70454</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2023-07-05</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1482 Pine St</t>
+          <t>6880 Oak St</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2930,22 +2930,22 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>54561</t>
+          <t>22097</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>(825) 122-8587</t>
+          <t>(897) 592-5516</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>1068530189</t>
+          <t>3953231657</t>
         </is>
       </c>
     </row>
@@ -2960,75 +2960,75 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Lisa Garcia</t>
+          <t>Lisa Johnson</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>lisa.garcia@company.com</t>
+          <t>lisa.johnson@company.com</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(658) 273-5001</t>
+          <t>(638) 285-4664</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>692-90-4483</t>
+          <t>198-42-9123</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1993-07-22</t>
+          <t>1983-09-22</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>133102</v>
+        <v>94368</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2018-03-12</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>6751 Maple St</t>
+          <t>9713 Maple St</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>41958</t>
+          <t>67020</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>(432) 362-6732</t>
+          <t>(692) 928-5037</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>7513306849</t>
+          <t>6651567650</t>
         </is>
       </c>
     </row>
@@ -3048,60 +3048,60 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jennifer Rodriguez</t>
+          <t>David Johnson</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>jennifer.rodriguez@company.com</t>
+          <t>david.johnson@company.com</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(429) 120-2708</t>
+          <t>(402) 221-3884</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>814-93-4151</t>
+          <t>122-90-7552</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1988-02-07</t>
+          <t>1960-08-07</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Associate</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>103291</v>
+        <v>120909</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2018-11-10</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>8276 Oak St</t>
+          <t>8407 Main St</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3111,27 +3111,27 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>62457</t>
+          <t>97831</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>(625) 458-1697</t>
+          <t>(656) 778-2889</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Spouse</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>5758190732</t>
+          <t>3382281494</t>
         </is>
       </c>
     </row>
@@ -3141,60 +3141,60 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Robert Williams</t>
+          <t>Sarah Johnson</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>robert.williams@company.com</t>
+          <t>sarah.johnson@company.com</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(971) 237-6485</t>
+          <t>(453) 523-9843</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>406-49-3557</t>
+          <t>789-20-3510</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1995-10-23</t>
+          <t>1971-07-12</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>130397</v>
+        <v>100820</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2018-04-06</t>
+          <t>2023-10-03</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>4832 Oak St</t>
+          <t>7117 Oak St</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3204,27 +3204,27 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>27799</t>
+          <t>70378</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>(652) 174-2908</t>
+          <t>(221) 642-4972</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>3219255691</t>
+          <t>1688249766</t>
         </is>
       </c>
     </row>
@@ -3234,90 +3234,90 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jane</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Michael Williams</t>
+          <t>Jane Davis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>michael.williams@company.com</t>
+          <t>jane.davis@company.com</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(425) 256-6455</t>
+          <t>(436) 371-8333</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>877-14-3026</t>
+          <t>271-29-8635</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1966-02-11</t>
+          <t>1964-05-21</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Customer Support</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Associate</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>142187</v>
+        <v>82256</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5551 Oak St</t>
+          <t>1814 Maple St</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>30962</t>
+          <t>64357</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>(921) 218-5085</t>
+          <t>(510) 362-5685</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>5713569788</t>
+          <t>5678357873</t>
         </is>
       </c>
     </row>
@@ -3327,90 +3327,90 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>James Davis</t>
+          <t>Michael Williams</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>james.davis@company.com</t>
+          <t>michael.williams@company.com</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(908) 429-3607</t>
+          <t>(380) 496-8252</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>442-42-6179</t>
+          <t>937-42-1587</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1969-08-10</t>
+          <t>1962-11-27</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>131953</v>
+        <v>136295</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2015-12-02</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1838 Oak St</t>
+          <t>9932 Main St</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>49625</t>
+          <t>80218</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>(829) 832-3774</t>
+          <t>(713) 119-3792</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>1818561104</t>
+          <t>3158366578</t>
         </is>
       </c>
     </row>
@@ -3420,90 +3420,90 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>John Brown</t>
+          <t>Jennifer Jones</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>john.brown@company.com</t>
+          <t>jennifer.jones@company.com</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(623) 156-5660</t>
+          <t>(569) 517-1366</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>623-72-6172</t>
+          <t>315-46-8734</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1981-06-11</t>
+          <t>1973-02-19</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>91073</v>
+        <v>104667</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2017-09-18</t>
+          <t>2020-12-17</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5735 Maple St</t>
+          <t>8792 Oak St</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>99254</t>
+          <t>46045</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>(213) 151-5360</t>
+          <t>(811) 580-9840</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Sibling</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>6466643725</t>
+          <t>4949110564</t>
         </is>
       </c>
     </row>
@@ -3518,85 +3518,85 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>David Rodriguez</t>
+          <t>David Davis</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>david.rodriguez@company.com</t>
+          <t>david.davis@company.com</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(242) 557-8299</t>
+          <t>(238) 811-3932</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>220-43-2980</t>
+          <t>371-81-5434</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1978-10-17</t>
+          <t>1998-12-15</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Specialist</t>
+          <t>Associate</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>68381</v>
+        <v>143191</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2016-11-21</t>
+          <t>2018-06-18</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4419 Maple St</t>
+          <t>8450 Main St</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>72536</t>
+          <t>87947</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>(952) 729-1599</t>
+          <t>(902) 220-4307</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Spouse</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>4918872255</t>
+          <t>1540619485</t>
         </is>
       </c>
     </row>
@@ -3606,60 +3606,60 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Lisa Garcia</t>
+          <t>James Davis</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>lisa.garcia@company.com</t>
+          <t>james.davis@company.com</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(932) 894-3901</t>
+          <t>(854) 482-9241</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>319-30-1450</t>
+          <t>131-21-4666</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1977-04-10</t>
+          <t>1996-08-27</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>124657</v>
+        <v>144232</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2021-12-21</t>
+          <t>2015-01-17</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>6440 Main St</t>
+          <t>2748 Maple St</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3669,17 +3669,17 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>45142</t>
+          <t>22589</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>(829) 238-1790</t>
+          <t>(934) 776-7544</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>8202280720</t>
+          <t>3808250653</t>
         </is>
       </c>
     </row>
@@ -3699,65 +3699,65 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jane Rodriguez</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>jane.rodriguez@company.com</t>
+          <t>john.smith@company.com</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>(215) 127-7268</t>
+          <t>(614) 805-1298</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>698-31-2322</t>
+          <t>792-94-3242</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1960-11-28</t>
+          <t>1999-11-23</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>73944</v>
+        <v>54135</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>3333 Main St</t>
+          <t>9308 Pine St</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3767,22 +3767,22 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>93575</t>
+          <t>79223</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>(683) 719-2948</t>
+          <t>(689) 573-9641</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Spouse</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>2373170081</t>
+          <t>3867195357</t>
         </is>
       </c>
     </row>
@@ -3792,90 +3792,90 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>John Garcia</t>
+          <t>Michael Martinez</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>john.garcia@company.com</t>
+          <t>michael.martinez@company.com</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>(639) 211-7285</t>
+          <t>(825) 687-9602</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>207-86-6625</t>
+          <t>570-16-6856</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1994-02-09</t>
+          <t>1967-03-23</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Specialist</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>95572</v>
+        <v>59936</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2019-07-28</t>
+          <t>2019-07-08</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>8732 Oak St</t>
+          <t>1326 Maple St</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>82873</t>
+          <t>89519</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>(700) 274-4270</t>
+          <t>(700) 439-4532</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Sibling</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>8432285955</t>
+          <t>6730063525</t>
         </is>
       </c>
     </row>
@@ -3885,65 +3885,65 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sarah Williams</t>
+          <t>Robert Jones</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sarah.williams@company.com</t>
+          <t>robert.jones@company.com</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>(525) 785-1273</t>
+          <t>(355) 461-7644</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>933-53-2356</t>
+          <t>793-35-8526</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1998-07-24</t>
+          <t>1968-02-02</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Customer Support</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Specialist</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>104616</v>
+        <v>101623</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2016-07-23</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>5684 Oak St</t>
+          <t>752 Oak St</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>99900</t>
+          <t>74480</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>(810) 836-4767</t>
+          <t>(467) 726-9124</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>7889662557</t>
+          <t>5985619541</t>
         </is>
       </c>
     </row>
@@ -3978,37 +3978,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>David Garcia</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>james.miller@company.com</t>
+          <t>david.garcia@company.com</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>(574) 711-8808</t>
+          <t>(771) 821-9335</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>370-86-8471</t>
+          <t>534-39-4578</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1977-07-09</t>
+          <t>1962-03-23</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4018,50 +4018,50 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Associate</t>
+          <t>Specialist</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>101449</v>
+        <v>84177</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2015-01-17</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>9662 Pine St</t>
+          <t>5883 Maple St</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>58223</t>
+          <t>41034</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>(526) 338-1022</t>
+          <t>(607) 905-7194</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Sibling</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>5608201894</t>
+          <t>2663487847</t>
         </is>
       </c>
     </row>
@@ -4071,80 +4071,80 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jennifer Davis</t>
+          <t>Mary Brown</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>jennifer.davis@company.com</t>
+          <t>mary.brown@company.com</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>(929) 928-1715</t>
+          <t>(546) 887-2249</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>528-23-3430</t>
+          <t>557-75-8417</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1985-04-07</t>
+          <t>1975-09-05</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Associate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>94305</v>
+        <v>126351</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2015-07-07</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>5797 Pine St</t>
+          <t>2440 Pine St</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>25015</t>
+          <t>91743</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>(884) 119-3312</t>
+          <t>(746) 338-4121</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>6334590221</t>
+          <t>1406965608</t>
         </is>
       </c>
     </row>
@@ -4164,90 +4164,90 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jennifer Davis</t>
+          <t>Robert Jones</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>jennifer.davis@company.com</t>
+          <t>robert.jones@company.com</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>(898) 920-7406</t>
+          <t>(523) 778-7567</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>206-31-7945</t>
+          <t>539-84-2300</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1995-08-22</t>
+          <t>1998-11-17</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>122196</v>
+        <v>115877</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2018-12-25</t>
+          <t>2017-11-10</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5622 Maple St</t>
+          <t>9614 Oak St</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>16625</t>
+          <t>34896</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>(223) 465-4603</t>
+          <t>(356) 176-6381</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Sibling</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>3789827540</t>
+          <t>9732775977</t>
         </is>
       </c>
     </row>
@@ -4257,65 +4257,65 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mary Miller</t>
+          <t>Jennifer Jones</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>mary.miller@company.com</t>
+          <t>jennifer.jones@company.com</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>(542) 112-8485</t>
+          <t>(750) 478-4021</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>830-16-3279</t>
+          <t>305-15-5564</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1994-11-22</t>
+          <t>1995-04-01</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>124900</v>
+        <v>96141</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2017-03-22</t>
+          <t>2019-02-08</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1154 Pine St</t>
+          <t>3660 Pine St</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -4325,22 +4325,22 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>61908</t>
+          <t>61112</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>(601) 255-4441</t>
+          <t>(629) 946-2094</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Spouse</t>
+          <t>Sibling</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>1481580601</t>
+          <t>9475769655</t>
         </is>
       </c>
     </row>
@@ -4350,80 +4350,80 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jane Brown</t>
+          <t>Lisa Williams</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>jane.brown@company.com</t>
+          <t>lisa.williams@company.com</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>(332) 596-5794</t>
+          <t>(366) 606-1443</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>329-29-7443</t>
+          <t>863-85-1627</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1977-06-24</t>
+          <t>1979-01-27</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Associate</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>139635</v>
+        <v>143658</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2016-03-12</t>
+          <t>2019-05-16</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2573 Pine St</t>
+          <t>9292 Pine St</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>99499</t>
+          <t>31423</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>(824) 557-8470</t>
+          <t>(460) 642-8271</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>8227116229</t>
+          <t>3267533286</t>
         </is>
       </c>
     </row>
@@ -4443,42 +4443,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sarah Davis</t>
+          <t>Michael Brown</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sarah.davis@company.com</t>
+          <t>michael.brown@company.com</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>(449) 428-1995</t>
+          <t>(612) 553-4828</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>579-40-2802</t>
+          <t>176-47-6575</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1971-11-20</t>
+          <t>1999-08-26</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -4487,46 +4487,46 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>149989</v>
+        <v>145963</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2018-07-03</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>6371 Main St</t>
+          <t>4108 Maple St</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>88299</t>
+          <t>30001</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>(290) 978-4847</t>
+          <t>(736) 565-1141</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Sibling</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>6101648886</t>
+          <t>6181635822</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jane</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4546,80 +4546,80 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Michael Johnson</t>
+          <t>Jane Johnson</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>michael.johnson@company.com</t>
+          <t>jane.johnson@company.com</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>(371) 796-1097</t>
+          <t>(739) 244-1504</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>898-75-9720</t>
+          <t>851-90-8744</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1985-10-24</t>
+          <t>1997-01-17</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Specialist</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>63567</v>
+        <v>84324</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>2015-08-23</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1373 Maple St</t>
+          <t>4247 Maple St</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>34960</t>
+          <t>33108</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>(421) 351-2417</t>
+          <t>(948) 357-7820</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>5774496429</t>
+          <t>5756721485</t>
         </is>
       </c>
     </row>
@@ -4629,80 +4629,80 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>Jennifer Jones</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>john.johnson@company.com</t>
+          <t>jennifer.jones@company.com</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>(455) 510-4857</t>
+          <t>(852) 197-2115</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>505-16-1378</t>
+          <t>320-74-9188</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1988-04-28</t>
+          <t>1981-11-20</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Specialist</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>71325</v>
+        <v>51642</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2017-10-01</t>
+          <t>2019-07-13</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3948 Main St</t>
+          <t>7697 Maple St</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>75233</t>
+          <t>45369</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>(738) 699-9819</t>
+          <t>(964) 538-2469</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>2551958817</t>
+          <t>2312063289</t>
         </is>
       </c>
     </row>
@@ -4722,60 +4722,60 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>David Brown</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>jane.smith@company.com</t>
+          <t>david.brown@company.com</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>(975) 938-1771</t>
+          <t>(308) 498-2472</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>239-67-1408</t>
+          <t>515-71-3503</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2000-12-19</t>
+          <t>1996-02-04</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Associate</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>128676</v>
+        <v>99701</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6129 Oak St</t>
+          <t>9208 Pine St</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4785,27 +4785,27 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>70123</t>
+          <t>78378</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>(232) 255-7130</t>
+          <t>(228) 371-1519</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Spouse</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>7357320471</t>
+          <t>7565155151</t>
         </is>
       </c>
     </row>
@@ -4815,80 +4815,80 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Jennifer Miller</t>
+          <t>James Garcia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>jennifer.miller@company.com</t>
+          <t>james.garcia@company.com</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>(789) 169-1503</t>
+          <t>(545) 125-8138</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>601-79-9471</t>
+          <t>768-30-6923</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1967-02-21</t>
+          <t>1995-07-21</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>60192</v>
+        <v>97678</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2016-02-09</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7209 Pine St</t>
+          <t>6737 Pine St</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>11624</t>
+          <t>43791</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>(532) 466-5621</t>
+          <t>(626) 797-5132</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2265124514</t>
+          <t>1761404833</t>
         </is>
       </c>
     </row>
@@ -4908,90 +4908,90 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jane Rodriguez</t>
+          <t>Mary Jones</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>jane.rodriguez@company.com</t>
+          <t>mary.jones@company.com</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>(585) 382-7243</t>
+          <t>(288) 886-7064</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>657-15-4727</t>
+          <t>764-32-9802</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1973-10-16</t>
+          <t>1970-04-22</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>129339</v>
+        <v>101084</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2017-12-06</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>8440 Oak St</t>
+          <t>3903 Pine St</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>71682</t>
+          <t>96747</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>(869) 479-8953</t>
+          <t>(389) 914-3956</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Spouse</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>8417380317</t>
+          <t>5320670792</t>
         </is>
       </c>
     </row>
@@ -5001,90 +5001,90 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Lisa Williams</t>
+          <t>Jennifer Johnson</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>lisa.williams@company.com</t>
+          <t>jennifer.johnson@company.com</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>(647) 117-7326</t>
+          <t>(749) 381-5618</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>395-76-1086</t>
+          <t>916-93-7001</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1992-11-12</t>
+          <t>2000-11-23</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Specialist</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>106733</v>
+        <v>60316</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>9205 Oak St</t>
+          <t>7974 Maple St</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>47386</t>
+          <t>34147</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>(263) 978-8822</t>
+          <t>(404) 700-6978</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Spouse</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>1765323177</t>
+          <t>8944142189</t>
         </is>
       </c>
     </row>
@@ -5094,60 +5094,60 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>John Brown</t>
+          <t>David Jones</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>john.brown@company.com</t>
+          <t>david.jones@company.com</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>(677) 318-4664</t>
+          <t>(778) 928-2494</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>802-88-8689</t>
+          <t>680-43-2447</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2000-08-19</t>
+          <t>1993-02-04</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Customer Support</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>141029</v>
+        <v>52293</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2016-06-18</t>
+          <t>2016-08-27</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2373 Pine St</t>
+          <t>617 Maple St</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -5157,17 +5157,17 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>21634</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>(532) 392-5606</t>
+          <t>(616) 650-6258</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>2701468865</t>
+          <t>5893281831</t>
         </is>
       </c>
     </row>
@@ -5233,20 +5233,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mary Garcia</t>
+          <t>John Garcia</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>64530</v>
+        <v>140432</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5035068635</t>
+          <t>4465636402</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>457555637</t>
+          <t>863203078</t>
         </is>
       </c>
     </row>
@@ -5256,20 +5256,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jane Johnson</t>
+          <t>David Smith</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100880</v>
+        <v>121655</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2821598685</t>
+          <t>2164622426</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>811511448</t>
+          <t>901500815</t>
         </is>
       </c>
     </row>
@@ -5279,20 +5279,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robert Jones</t>
+          <t>Sarah Rodriguez</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66030</v>
+        <v>55131</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1078715221</t>
+          <t>9164816245</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>348217626</t>
+          <t>700862869</t>
         </is>
       </c>
     </row>
@@ -5302,20 +5302,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>John Martinez</t>
+          <t>Michael Rodriguez</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78884</v>
+        <v>145939</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1384488869</t>
+          <t>2971478566</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>455691793</t>
+          <t>444162920</t>
         </is>
       </c>
     </row>
@@ -5325,20 +5325,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>David Brown</t>
+          <t>David Davis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>129862</v>
+        <v>87155</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4229343967</t>
+          <t>7917460702</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>605453474</t>
+          <t>884069796</t>
         </is>
       </c>
     </row>
@@ -5348,20 +5348,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sarah Garcia</t>
+          <t>David Rodriguez</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>138131</v>
+        <v>135042</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7360126501</t>
+          <t>4978805397</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>953292998</t>
+          <t>148737962</t>
         </is>
       </c>
     </row>
@@ -5371,20 +5371,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jane Martinez</t>
+          <t>Jennifer Martinez</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>96408</v>
+        <v>142615</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3470177384</t>
+          <t>9276372220</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>579192194</t>
+          <t>303053784</t>
         </is>
       </c>
     </row>
@@ -5394,20 +5394,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mary Brown</t>
+          <t>Robert Miller</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>108900</v>
+        <v>129863</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4076026040</t>
+          <t>2433713988</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>817928106</t>
+          <t>114561585</t>
         </is>
       </c>
     </row>
@@ -5417,20 +5417,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Robert Brown</t>
+          <t>Lisa Williams</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>77528</v>
+        <v>125422</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9744835444</t>
+          <t>8975646813</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>695528706</t>
+          <t>630904240</t>
         </is>
       </c>
     </row>
@@ -5440,20 +5440,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jane Rodriguez</t>
+          <t>David Rodriguez</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>148641</v>
+        <v>99880</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5298347816</t>
+          <t>8729669435</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>893768395</t>
+          <t>205912337</t>
         </is>
       </c>
     </row>
@@ -5463,20 +5463,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jennifer Davis</t>
+          <t>David Brown</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>77953</v>
+        <v>93357</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6026060812</t>
+          <t>5180152168</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>330564435</t>
+          <t>538234706</t>
         </is>
       </c>
     </row>
@@ -5486,20 +5486,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>David Martinez</t>
+          <t>Michael Brown</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>64470</v>
+        <v>87707</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5378388344</t>
+          <t>8965152468</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>286068541</t>
+          <t>191627525</t>
         </is>
       </c>
     </row>
@@ -5509,20 +5509,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lisa Garcia</t>
+          <t>Mary Garcia</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>134929</v>
+        <v>88705</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2330725270</t>
+          <t>9267225089</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>478851377</t>
+          <t>697652167</t>
         </is>
       </c>
     </row>
@@ -5532,20 +5532,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lisa Jones</t>
+          <t>Michael Jones</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>70774</v>
+        <v>142545</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7891440305</t>
+          <t>5385581699</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>612163324</t>
+          <t>418402564</t>
         </is>
       </c>
     </row>
@@ -5555,20 +5555,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sarah Williams</t>
+          <t>James Garcia</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>105031</v>
+        <v>119028</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9148204132</t>
+          <t>5983251514</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>882869041</t>
+          <t>285684625</t>
         </is>
       </c>
     </row>
@@ -5578,20 +5578,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mary Davis</t>
+          <t>Robert Davis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>85956</v>
+        <v>54659</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3818943665</t>
+          <t>5917204028</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>500306844</t>
+          <t>257104109</t>
         </is>
       </c>
     </row>
@@ -5601,20 +5601,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Michael Johnson</t>
+          <t>Michael Miller</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>72001</v>
+        <v>123832</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7149404449</t>
+          <t>5942738905</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>155458997</t>
+          <t>151271921</t>
         </is>
       </c>
     </row>
@@ -5624,20 +5624,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sarah Williams</t>
+          <t>David Miller</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>62748</v>
+        <v>94036</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2530524778</t>
+          <t>6095242688</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>750560097</t>
+          <t>338838928</t>
         </is>
       </c>
     </row>
@@ -5647,20 +5647,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sarah Williams</t>
+          <t>Mary Williams</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>109931</v>
+        <v>116325</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6291077159</t>
+          <t>7248664664</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>417760904</t>
+          <t>940949609</t>
         </is>
       </c>
     </row>
@@ -5670,20 +5670,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>James Smith</t>
+          <t>Jane Martinez</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>84581</v>
+        <v>137959</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7876758208</t>
+          <t>4134889927</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>576287761</t>
+          <t>257083269</t>
         </is>
       </c>
     </row>
@@ -5693,20 +5693,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lisa Johnson</t>
+          <t>Michael Smith</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>136063</v>
+        <v>148829</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4103434711</t>
+          <t>2546539630</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>206752536</t>
+          <t>436870453</t>
         </is>
       </c>
     </row>
@@ -5716,20 +5716,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jennifer Brown</t>
+          <t>Jane Martinez</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>107011</v>
+        <v>99450</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7226872075</t>
+          <t>9287345915</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>477085776</t>
+          <t>639136616</t>
         </is>
       </c>
     </row>
@@ -5739,20 +5739,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jennifer Smith</t>
+          <t>David Johnson</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>62573</v>
+        <v>55370</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2096591437</t>
+          <t>2733519826</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>467820800</t>
+          <t>942249099</t>
         </is>
       </c>
     </row>
@@ -5762,20 +5762,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sarah Johnson</t>
+          <t>Sarah Williams</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>136671</v>
+        <v>122101</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9888740414</t>
+          <t>3413938262</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>147007197</t>
+          <t>570527842</t>
         </is>
       </c>
     </row>
@@ -5785,20 +5785,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>Robert Williams</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>111365</v>
+        <v>108876</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9302958628</t>
+          <t>8506391466</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>289855377</t>
+          <t>674168886</t>
         </is>
       </c>
     </row>
@@ -5808,20 +5808,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Sarah Jones</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>80341</v>
+        <v>70454</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1068530189</t>
+          <t>3953231657</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>358922546</t>
+          <t>254529218</t>
         </is>
       </c>
     </row>
@@ -5831,20 +5831,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lisa Garcia</t>
+          <t>Lisa Johnson</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>133102</v>
+        <v>94368</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7513306849</t>
+          <t>6651567650</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>144886050</t>
+          <t>160403212</t>
         </is>
       </c>
     </row>
@@ -5854,20 +5854,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jennifer Rodriguez</t>
+          <t>David Johnson</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>103291</v>
+        <v>120909</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5758190732</t>
+          <t>3382281494</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>955495336</t>
+          <t>163587636</t>
         </is>
       </c>
     </row>
@@ -5877,20 +5877,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Robert Williams</t>
+          <t>Sarah Johnson</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>130397</v>
+        <v>100820</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3219255691</t>
+          <t>1688249766</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>178290186</t>
+          <t>593835917</t>
         </is>
       </c>
     </row>
@@ -5900,20 +5900,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Michael Williams</t>
+          <t>Jane Davis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>142187</v>
+        <v>82256</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5713569788</t>
+          <t>5678357873</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>351912458</t>
+          <t>710844746</t>
         </is>
       </c>
     </row>
@@ -5923,20 +5923,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>James Davis</t>
+          <t>Michael Williams</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>131953</v>
+        <v>136295</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1818561104</t>
+          <t>3158366578</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>416804589</t>
+          <t>328340605</t>
         </is>
       </c>
     </row>
@@ -5946,20 +5946,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>John Brown</t>
+          <t>Jennifer Jones</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>91073</v>
+        <v>104667</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6466643725</t>
+          <t>4949110564</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>808433273</t>
+          <t>359772908</t>
         </is>
       </c>
     </row>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>David Rodriguez</t>
+          <t>David Davis</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>68381</v>
+        <v>143191</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4918872255</t>
+          <t>1540619485</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>718190271</t>
+          <t>966304602</t>
         </is>
       </c>
     </row>
@@ -5992,20 +5992,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lisa Garcia</t>
+          <t>James Davis</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>124657</v>
+        <v>144232</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8202280720</t>
+          <t>3808250653</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>229322278</t>
+          <t>252358218</t>
         </is>
       </c>
     </row>
@@ -6015,20 +6015,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Jane Rodriguez</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>73944</v>
+        <v>54135</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2373170081</t>
+          <t>3867195357</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>109069628</t>
+          <t>430677992</t>
         </is>
       </c>
     </row>
@@ -6038,20 +6038,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>John Garcia</t>
+          <t>Michael Martinez</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>95572</v>
+        <v>59936</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8432285955</t>
+          <t>6730063525</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>344961580</t>
+          <t>698095420</t>
         </is>
       </c>
     </row>
@@ -6061,20 +6061,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sarah Williams</t>
+          <t>Robert Jones</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>104616</v>
+        <v>101623</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7889662557</t>
+          <t>5985619541</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>619665910</t>
+          <t>214197813</t>
         </is>
       </c>
     </row>
@@ -6084,20 +6084,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>David Garcia</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>101449</v>
+        <v>84177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5608201894</t>
+          <t>2663487847</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>968255014</t>
+          <t>797740814</t>
         </is>
       </c>
     </row>
@@ -6107,20 +6107,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jennifer Davis</t>
+          <t>Mary Brown</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>94305</v>
+        <v>126351</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6334590221</t>
+          <t>1406965608</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>125319884</t>
+          <t>914435765</t>
         </is>
       </c>
     </row>
@@ -6130,20 +6130,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Jennifer Davis</t>
+          <t>Robert Jones</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>122196</v>
+        <v>115877</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3789827540</t>
+          <t>9732775977</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>358021506</t>
+          <t>815977606</t>
         </is>
       </c>
     </row>
@@ -6153,20 +6153,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mary Miller</t>
+          <t>Jennifer Jones</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>124900</v>
+        <v>96141</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1481580601</t>
+          <t>9475769655</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>870204321</t>
+          <t>127885734</t>
         </is>
       </c>
     </row>
@@ -6176,20 +6176,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jane Brown</t>
+          <t>Lisa Williams</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>139635</v>
+        <v>143658</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8227116229</t>
+          <t>3267533286</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>542804382</t>
+          <t>387029093</t>
         </is>
       </c>
     </row>
@@ -6199,20 +6199,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sarah Davis</t>
+          <t>Michael Brown</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>149989</v>
+        <v>145963</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6101648886</t>
+          <t>6181635822</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>584690347</t>
+          <t>947964197</t>
         </is>
       </c>
     </row>
@@ -6222,20 +6222,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Michael Johnson</t>
+          <t>Jane Johnson</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>63567</v>
+        <v>84324</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5774496429</t>
+          <t>5756721485</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>192542240</t>
+          <t>752243795</t>
         </is>
       </c>
     </row>
@@ -6245,20 +6245,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>Jennifer Jones</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>71325</v>
+        <v>51642</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2551958817</t>
+          <t>2312063289</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>591444186</t>
+          <t>443078494</t>
         </is>
       </c>
     </row>
@@ -6268,20 +6268,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>David Brown</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>128676</v>
+        <v>99701</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7357320471</t>
+          <t>7565155151</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>558776669</t>
+          <t>959931065</t>
         </is>
       </c>
     </row>
@@ -6291,20 +6291,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jennifer Miller</t>
+          <t>James Garcia</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>60192</v>
+        <v>97678</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2265124514</t>
+          <t>1761404833</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>894788005</t>
+          <t>572989264</t>
         </is>
       </c>
     </row>
@@ -6314,20 +6314,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Jane Rodriguez</t>
+          <t>Mary Jones</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>129339</v>
+        <v>101084</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8417380317</t>
+          <t>5320670792</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>525796104</t>
+          <t>393854481</t>
         </is>
       </c>
     </row>
@@ -6337,20 +6337,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Lisa Williams</t>
+          <t>Jennifer Johnson</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>106733</v>
+        <v>60316</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1765323177</t>
+          <t>8944142189</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>476117669</t>
+          <t>399593212</t>
         </is>
       </c>
     </row>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>John Brown</t>
+          <t>David Jones</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>141029</v>
+        <v>52293</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2701468865</t>
+          <t>5893281831</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>121994366</t>
+          <t>686662883</t>
         </is>
       </c>
     </row>
